--- a/natmiOut/OldD2/LR-pairs_lrc2p/Lif-Lifr.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Lif-Lifr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Lif</t>
   </si>
   <si>
@@ -91,13 +97,7 @@
     <t>ECs</t>
   </si>
   <si>
-    <t>M2</t>
-  </si>
-  <si>
     <t>Neutro</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.05498881297749</v>
+        <v>5.978705666666666</v>
       </c>
       <c r="H2">
-        <v>5.05498881297749</v>
+        <v>17.936117</v>
       </c>
       <c r="I2">
-        <v>0.9126850505886229</v>
+        <v>0.8036718008769134</v>
       </c>
       <c r="J2">
-        <v>0.9126850505886229</v>
+        <v>0.8228681815612665</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>31.6557964151363</v>
+        <v>31.7631495</v>
       </c>
       <c r="N2">
-        <v>31.6557964151363</v>
+        <v>63.52629899999999</v>
       </c>
       <c r="O2">
-        <v>0.261061763623723</v>
+        <v>0.2494255238736205</v>
       </c>
       <c r="P2">
-        <v>0.261061763623723</v>
+        <v>0.1905320411699034</v>
       </c>
       <c r="Q2">
-        <v>160.0196967444069</v>
+        <v>189.9025219068305</v>
       </c>
       <c r="R2">
-        <v>160.0196967444069</v>
+        <v>1139.415131440983</v>
       </c>
       <c r="S2">
-        <v>0.2382671689396728</v>
+        <v>0.2004562599561802</v>
       </c>
       <c r="T2">
-        <v>0.2382671689396728</v>
+        <v>0.1567827542466348</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.05498881297749</v>
+        <v>5.978705666666666</v>
       </c>
       <c r="H3">
-        <v>5.05498881297749</v>
+        <v>17.936117</v>
       </c>
       <c r="I3">
-        <v>0.9126850505886229</v>
+        <v>0.8036718008769134</v>
       </c>
       <c r="J3">
-        <v>0.9126850505886229</v>
+        <v>0.8228681815612665</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>16.1535840603472</v>
+        <v>17.81777966666667</v>
       </c>
       <c r="N3">
-        <v>16.1535840603472</v>
+        <v>53.453339</v>
       </c>
       <c r="O3">
-        <v>0.1332167761106112</v>
+        <v>0.139917139754138</v>
       </c>
       <c r="P3">
-        <v>0.1332167761106112</v>
+        <v>0.1603205907999899</v>
       </c>
       <c r="Q3">
-        <v>81.65618671454659</v>
+        <v>106.5272602605181</v>
       </c>
       <c r="R3">
-        <v>81.65618671454659</v>
+        <v>958.745342344663</v>
       </c>
       <c r="S3">
-        <v>0.1215849600437664</v>
+        <v>0.1124474596797548</v>
       </c>
       <c r="T3">
-        <v>0.1215849600437664</v>
+        <v>0.1319227130184156</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.05498881297749</v>
+        <v>5.978705666666666</v>
       </c>
       <c r="H4">
-        <v>5.05498881297749</v>
+        <v>17.936117</v>
       </c>
       <c r="I4">
-        <v>0.9126850505886229</v>
+        <v>0.8036718008769134</v>
       </c>
       <c r="J4">
-        <v>0.9126850505886229</v>
+        <v>0.8228681815612665</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.6892156434346</v>
+        <v>13.32746566666667</v>
       </c>
       <c r="N4">
-        <v>11.6892156434346</v>
+        <v>39.982397</v>
       </c>
       <c r="O4">
-        <v>0.09639963598558889</v>
+        <v>0.1046561867492399</v>
       </c>
       <c r="P4">
-        <v>0.09639963598558889</v>
+        <v>0.1199177007191215</v>
       </c>
       <c r="Q4">
-        <v>59.08885431004337</v>
+        <v>79.68099450360545</v>
       </c>
       <c r="R4">
-        <v>59.08885431004337</v>
+        <v>717.1289505324489</v>
       </c>
       <c r="S4">
-        <v>0.08798250664623203</v>
+        <v>0.08410922607767216</v>
       </c>
       <c r="T4">
-        <v>0.08798250664623203</v>
+        <v>0.09867646032775165</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.05498881297749</v>
+        <v>5.978705666666666</v>
       </c>
       <c r="H5">
-        <v>5.05498881297749</v>
+        <v>17.936117</v>
       </c>
       <c r="I5">
-        <v>0.9126850505886229</v>
+        <v>0.8036718008769134</v>
       </c>
       <c r="J5">
-        <v>0.9126850505886229</v>
+        <v>0.8228681815612665</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>22.0404337138817</v>
+        <v>24.04189266666667</v>
       </c>
       <c r="N5">
-        <v>22.0404337138817</v>
+        <v>72.12567800000001</v>
       </c>
       <c r="O5">
-        <v>0.1817649577006526</v>
+        <v>0.1887930437533183</v>
       </c>
       <c r="P5">
-        <v>0.1817649577006526</v>
+        <v>0.2163238354260682</v>
       </c>
       <c r="Q5">
-        <v>111.4141458568439</v>
+        <v>143.7393999235918</v>
       </c>
       <c r="R5">
-        <v>111.4141458568439</v>
+        <v>1293.654599312326</v>
       </c>
       <c r="S5">
-        <v>0.165894159614259</v>
+        <v>0.1517276454662632</v>
       </c>
       <c r="T5">
-        <v>0.165894159614259</v>
+        <v>0.1780060010854075</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.05498881297749</v>
+        <v>5.978705666666666</v>
       </c>
       <c r="H6">
-        <v>5.05498881297749</v>
+        <v>17.936117</v>
       </c>
       <c r="I6">
-        <v>0.9126850505886229</v>
+        <v>0.8036718008769134</v>
       </c>
       <c r="J6">
-        <v>0.9126850505886229</v>
+        <v>0.8228681815612665</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.3216963641816</v>
+        <v>23.53771866666667</v>
       </c>
       <c r="N6">
-        <v>23.3216963641816</v>
+        <v>70.613156</v>
       </c>
       <c r="O6">
-        <v>0.1923313854968764</v>
+        <v>0.184833931824778</v>
       </c>
       <c r="P6">
-        <v>0.1923313854968764</v>
+        <v>0.211787385034485</v>
       </c>
       <c r="Q6">
-        <v>117.8909142205958</v>
+        <v>140.7250919728058</v>
       </c>
       <c r="R6">
-        <v>117.8909142205958</v>
+        <v>1266.525827755252</v>
       </c>
       <c r="S6">
-        <v>0.1755379803019965</v>
+        <v>0.14854581885278</v>
       </c>
       <c r="T6">
-        <v>0.1755379803019965</v>
+        <v>0.1742731004009424</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.05498881297749</v>
+        <v>5.978705666666666</v>
       </c>
       <c r="H7">
-        <v>5.05498881297749</v>
+        <v>17.936117</v>
       </c>
       <c r="I7">
-        <v>0.9126850505886229</v>
+        <v>0.8036718008769134</v>
       </c>
       <c r="J7">
-        <v>0.9126850505886229</v>
+        <v>0.8228681815612665</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.3971553699372</v>
+        <v>16.857219</v>
       </c>
       <c r="N7">
-        <v>16.3971553699372</v>
+        <v>33.714438</v>
       </c>
       <c r="O7">
-        <v>0.135225481082548</v>
+        <v>0.1323741740449054</v>
       </c>
       <c r="P7">
-        <v>0.135225481082548</v>
+        <v>0.1011184468504321</v>
       </c>
       <c r="Q7">
-        <v>82.88743695968631</v>
+        <v>100.784350759541</v>
       </c>
       <c r="R7">
-        <v>82.88743695968631</v>
+        <v>604.706104557246</v>
       </c>
       <c r="S7">
-        <v>0.1234182750426962</v>
+        <v>0.1063853908442631</v>
       </c>
       <c r="T7">
-        <v>0.1234182750426962</v>
+        <v>0.08320715248211463</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.483601755277516</v>
+        <v>0.495079</v>
       </c>
       <c r="H8">
-        <v>0.483601755277516</v>
+        <v>1.485237</v>
       </c>
       <c r="I8">
-        <v>0.08731494941137706</v>
+        <v>0.06654969381159948</v>
       </c>
       <c r="J8">
-        <v>0.08731494941137706</v>
+        <v>0.06813928953393372</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>31.6557964151363</v>
+        <v>31.7631495</v>
       </c>
       <c r="N8">
-        <v>31.6557964151363</v>
+        <v>63.52629899999999</v>
       </c>
       <c r="O8">
-        <v>0.261061763623723</v>
+        <v>0.2494255238736205</v>
       </c>
       <c r="P8">
-        <v>0.261061763623723</v>
+        <v>0.1905320411699034</v>
       </c>
       <c r="Q8">
-        <v>15.30879871106761</v>
+        <v>15.7252682913105</v>
       </c>
       <c r="R8">
-        <v>15.30879871106761</v>
+        <v>94.35160974786298</v>
       </c>
       <c r="S8">
-        <v>0.02279459468405025</v>
+        <v>0.01659919224258724</v>
       </c>
       <c r="T8">
-        <v>0.02279459468405025</v>
+        <v>0.01298271791876743</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.483601755277516</v>
+        <v>0.495079</v>
       </c>
       <c r="H9">
-        <v>0.483601755277516</v>
+        <v>1.485237</v>
       </c>
       <c r="I9">
-        <v>0.08731494941137706</v>
+        <v>0.06654969381159948</v>
       </c>
       <c r="J9">
-        <v>0.08731494941137706</v>
+        <v>0.06813928953393372</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>16.1535840603472</v>
+        <v>17.81777966666667</v>
       </c>
       <c r="N9">
-        <v>16.1535840603472</v>
+        <v>53.453339</v>
       </c>
       <c r="O9">
-        <v>0.1332167761106112</v>
+        <v>0.139917139754138</v>
       </c>
       <c r="P9">
-        <v>0.1332167761106112</v>
+        <v>0.1603205907999899</v>
       </c>
       <c r="Q9">
-        <v>7.811901605606809</v>
+        <v>8.821208539593666</v>
       </c>
       <c r="R9">
-        <v>7.811901605606809</v>
+        <v>79.390876856343</v>
       </c>
       <c r="S9">
-        <v>0.01163181606684476</v>
+        <v>0.009311442809632654</v>
       </c>
       <c r="T9">
-        <v>0.01163181606684476</v>
+        <v>0.01092413115477182</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.483601755277516</v>
+        <v>0.495079</v>
       </c>
       <c r="H10">
-        <v>0.483601755277516</v>
+        <v>1.485237</v>
       </c>
       <c r="I10">
-        <v>0.08731494941137706</v>
+        <v>0.06654969381159948</v>
       </c>
       <c r="J10">
-        <v>0.08731494941137706</v>
+        <v>0.06813928953393372</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>11.6892156434346</v>
+        <v>13.32746566666667</v>
       </c>
       <c r="N10">
-        <v>11.6892156434346</v>
+        <v>39.982397</v>
       </c>
       <c r="O10">
-        <v>0.09639963598558889</v>
+        <v>0.1046561867492399</v>
       </c>
       <c r="P10">
-        <v>0.09639963598558889</v>
+        <v>0.1199177007191215</v>
       </c>
       <c r="Q10">
-        <v>5.652925202982371</v>
+        <v>6.598148374787667</v>
       </c>
       <c r="R10">
-        <v>5.652925202982371</v>
+        <v>59.383335373089</v>
       </c>
       <c r="S10">
-        <v>0.008417129339356857</v>
+        <v>0.006964837183651487</v>
       </c>
       <c r="T10">
-        <v>0.008417129339356857</v>
+        <v>0.00817110692954383</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.483601755277516</v>
+        <v>0.495079</v>
       </c>
       <c r="H11">
-        <v>0.483601755277516</v>
+        <v>1.485237</v>
       </c>
       <c r="I11">
-        <v>0.08731494941137706</v>
+        <v>0.06654969381159948</v>
       </c>
       <c r="J11">
-        <v>0.08731494941137706</v>
+        <v>0.06813928953393372</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>22.0404337138817</v>
+        <v>24.04189266666667</v>
       </c>
       <c r="N11">
-        <v>22.0404337138817</v>
+        <v>72.12567800000001</v>
       </c>
       <c r="O11">
-        <v>0.1817649577006526</v>
+        <v>0.1887930437533183</v>
       </c>
       <c r="P11">
-        <v>0.1817649577006526</v>
+        <v>0.2163238354260682</v>
       </c>
       <c r="Q11">
-        <v>10.65879243111093</v>
+        <v>11.90263617952067</v>
       </c>
       <c r="R11">
-        <v>10.65879243111093</v>
+        <v>107.123725615686</v>
       </c>
       <c r="S11">
-        <v>0.01587079808639357</v>
+        <v>0.01256411925554323</v>
       </c>
       <c r="T11">
-        <v>0.01587079808639357</v>
+        <v>0.01474015245518789</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.483601755277516</v>
+        <v>0.495079</v>
       </c>
       <c r="H12">
-        <v>0.483601755277516</v>
+        <v>1.485237</v>
       </c>
       <c r="I12">
-        <v>0.08731494941137706</v>
+        <v>0.06654969381159948</v>
       </c>
       <c r="J12">
-        <v>0.08731494941137706</v>
+        <v>0.06813928953393372</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>23.3216963641816</v>
+        <v>23.53771866666667</v>
       </c>
       <c r="N12">
-        <v>23.3216963641816</v>
+        <v>70.613156</v>
       </c>
       <c r="O12">
-        <v>0.1923313854968764</v>
+        <v>0.184833931824778</v>
       </c>
       <c r="P12">
-        <v>0.1923313854968764</v>
+        <v>0.211787385034485</v>
       </c>
       <c r="Q12">
-        <v>11.27841329776749</v>
+        <v>11.65303021977467</v>
       </c>
       <c r="R12">
-        <v>11.27841329776749</v>
+        <v>104.877271977972</v>
       </c>
       <c r="S12">
-        <v>0.01679340519487982</v>
+        <v>0.01230064156893303</v>
       </c>
       <c r="T12">
-        <v>0.01679340519487982</v>
+        <v>0.01443104194849947</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,805 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.495079</v>
+      </c>
+      <c r="H13">
+        <v>1.485237</v>
+      </c>
+      <c r="I13">
+        <v>0.06654969381159948</v>
+      </c>
+      <c r="J13">
+        <v>0.06813928953393372</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>16.857219</v>
+      </c>
+      <c r="N13">
+        <v>33.714438</v>
+      </c>
+      <c r="O13">
+        <v>0.1323741740449054</v>
+      </c>
+      <c r="P13">
+        <v>0.1011184468504321</v>
+      </c>
+      <c r="Q13">
+        <v>8.345655125301001</v>
+      </c>
+      <c r="R13">
+        <v>50.073930751806</v>
+      </c>
+      <c r="S13">
+        <v>0.008809460751251833</v>
+      </c>
+      <c r="T13">
+        <v>0.006890139127163282</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.4448116666666667</v>
+      </c>
+      <c r="H14">
+        <v>1.334435</v>
+      </c>
+      <c r="I14">
+        <v>0.05979263959993035</v>
+      </c>
+      <c r="J14">
+        <v>0.06122083736751432</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>31.7631495</v>
+      </c>
+      <c r="N14">
+        <v>63.52629899999999</v>
+      </c>
+      <c r="O14">
+        <v>0.2494255238736205</v>
+      </c>
+      <c r="P14">
+        <v>0.1905320411699034</v>
+      </c>
+      <c r="Q14">
+        <v>14.1286194676775</v>
+      </c>
+      <c r="R14">
+        <v>84.771716806065</v>
+      </c>
+      <c r="S14">
+        <v>0.01491381045599922</v>
+      </c>
+      <c r="T14">
+        <v>0.0116645311057632</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.4448116666666667</v>
+      </c>
+      <c r="H15">
+        <v>1.334435</v>
+      </c>
+      <c r="I15">
+        <v>0.05979263959993035</v>
+      </c>
+      <c r="J15">
+        <v>0.06122083736751432</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>17.81777966666667</v>
+      </c>
+      <c r="N15">
+        <v>53.453339</v>
+      </c>
+      <c r="O15">
+        <v>0.139917139754138</v>
+      </c>
+      <c r="P15">
+        <v>0.1603205907999899</v>
+      </c>
+      <c r="Q15">
+        <v>7.925556269829444</v>
+      </c>
+      <c r="R15">
+        <v>71.330006428465</v>
+      </c>
+      <c r="S15">
+        <v>0.00836601511117226</v>
+      </c>
+      <c r="T15">
+        <v>0.009814960816029993</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.4448116666666667</v>
+      </c>
+      <c r="H16">
+        <v>1.334435</v>
+      </c>
+      <c r="I16">
+        <v>0.05979263959993035</v>
+      </c>
+      <c r="J16">
+        <v>0.06122083736751432</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>13.32746566666667</v>
+      </c>
+      <c r="N16">
+        <v>39.982397</v>
+      </c>
+      <c r="O16">
+        <v>0.1046561867492399</v>
+      </c>
+      <c r="P16">
+        <v>0.1199177007191215</v>
+      </c>
+      <c r="Q16">
+        <v>5.928212215632778</v>
+      </c>
+      <c r="R16">
+        <v>53.353909940695</v>
+      </c>
+      <c r="S16">
+        <v>0.006257669656200305</v>
+      </c>
+      <c r="T16">
+        <v>0.00734146205321159</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.4448116666666667</v>
+      </c>
+      <c r="H17">
+        <v>1.334435</v>
+      </c>
+      <c r="I17">
+        <v>0.05979263959993035</v>
+      </c>
+      <c r="J17">
+        <v>0.06122083736751432</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>24.04189266666667</v>
+      </c>
+      <c r="N17">
+        <v>72.12567800000001</v>
+      </c>
+      <c r="O17">
+        <v>0.1887930437533183</v>
+      </c>
+      <c r="P17">
+        <v>0.2163238354260682</v>
+      </c>
+      <c r="Q17">
+        <v>10.69411434688111</v>
+      </c>
+      <c r="R17">
+        <v>96.24702912193001</v>
+      </c>
+      <c r="S17">
+        <v>0.01128843442411604</v>
+      </c>
+      <c r="T17">
+        <v>0.01324352634733626</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.4448116666666667</v>
+      </c>
+      <c r="H18">
+        <v>1.334435</v>
+      </c>
+      <c r="I18">
+        <v>0.05979263959993035</v>
+      </c>
+      <c r="J18">
+        <v>0.06122083736751432</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>23.53771866666667</v>
+      </c>
+      <c r="N18">
+        <v>70.613156</v>
+      </c>
+      <c r="O18">
+        <v>0.184833931824778</v>
+      </c>
+      <c r="P18">
+        <v>0.211787385034485</v>
+      </c>
+      <c r="Q18">
+        <v>10.46985186965111</v>
+      </c>
+      <c r="R18">
+        <v>94.22866682686001</v>
+      </c>
+      <c r="S18">
+        <v>0.01105170867143705</v>
+      </c>
+      <c r="T18">
+        <v>0.01296580105568734</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.4448116666666667</v>
+      </c>
+      <c r="H19">
+        <v>1.334435</v>
+      </c>
+      <c r="I19">
+        <v>0.05979263959993035</v>
+      </c>
+      <c r="J19">
+        <v>0.06122083736751432</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>16.857219</v>
+      </c>
+      <c r="N19">
+        <v>33.714438</v>
+      </c>
+      <c r="O19">
+        <v>0.1323741740449054</v>
+      </c>
+      <c r="P19">
+        <v>0.1011184468504321</v>
+      </c>
+      <c r="Q19">
+        <v>7.498287678755</v>
+      </c>
+      <c r="R19">
+        <v>44.98972607253</v>
+      </c>
+      <c r="S19">
+        <v>0.007915001281005482</v>
+      </c>
+      <c r="T19">
+        <v>0.006190555989485944</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.5</v>
+      </c>
+      <c r="G20">
+        <v>0.5206415</v>
+      </c>
+      <c r="H20">
+        <v>1.041283</v>
+      </c>
+      <c r="I20">
+        <v>0.06998586571155688</v>
+      </c>
+      <c r="J20">
+        <v>0.04777169153728537</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>31.7631495</v>
+      </c>
+      <c r="N20">
+        <v>63.52629899999999</v>
+      </c>
+      <c r="O20">
+        <v>0.2494255238736205</v>
+      </c>
+      <c r="P20">
+        <v>0.1905320411699034</v>
+      </c>
+      <c r="Q20">
+        <v>16.53721380040425</v>
+      </c>
+      <c r="R20">
+        <v>66.148855201617</v>
+      </c>
+      <c r="S20">
+        <v>0.01745626121885393</v>
+      </c>
+      <c r="T20">
+        <v>0.009102037898737984</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.5</v>
+      </c>
+      <c r="G21">
+        <v>0.5206415</v>
+      </c>
+      <c r="H21">
+        <v>1.041283</v>
+      </c>
+      <c r="I21">
+        <v>0.06998586571155688</v>
+      </c>
+      <c r="J21">
+        <v>0.04777169153728537</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>17.81777966666667</v>
+      </c>
+      <c r="N21">
+        <v>53.453339</v>
+      </c>
+      <c r="O21">
+        <v>0.139917139754138</v>
+      </c>
+      <c r="P21">
+        <v>0.1603205907999899</v>
+      </c>
+      <c r="Q21">
+        <v>9.276675532322832</v>
+      </c>
+      <c r="R21">
+        <v>55.660053193937</v>
+      </c>
+      <c r="S21">
+        <v>0.009792222153578237</v>
+      </c>
+      <c r="T21">
+        <v>0.007658785810772469</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.5</v>
+      </c>
+      <c r="G22">
+        <v>0.5206415</v>
+      </c>
+      <c r="H22">
+        <v>1.041283</v>
+      </c>
+      <c r="I22">
+        <v>0.06998586571155688</v>
+      </c>
+      <c r="J22">
+        <v>0.04777169153728537</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>13.32746566666667</v>
+      </c>
+      <c r="N22">
+        <v>39.982397</v>
+      </c>
+      <c r="O22">
+        <v>0.1046561867492399</v>
+      </c>
+      <c r="P22">
+        <v>0.1199177007191215</v>
+      </c>
+      <c r="Q22">
+        <v>6.938831715891833</v>
+      </c>
+      <c r="R22">
+        <v>41.632990295351</v>
+      </c>
+      <c r="S22">
+        <v>0.007324453831715919</v>
+      </c>
+      <c r="T22">
+        <v>0.005728671408614374</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.5</v>
+      </c>
+      <c r="G23">
+        <v>0.5206415</v>
+      </c>
+      <c r="H23">
+        <v>1.041283</v>
+      </c>
+      <c r="I23">
+        <v>0.06998586571155688</v>
+      </c>
+      <c r="J23">
+        <v>0.04777169153728537</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>24.04189266666667</v>
+      </c>
+      <c r="N23">
+        <v>72.12567800000001</v>
+      </c>
+      <c r="O23">
+        <v>0.1887930437533183</v>
+      </c>
+      <c r="P23">
+        <v>0.2163238354260682</v>
+      </c>
+      <c r="Q23">
+        <v>12.51720706081233</v>
+      </c>
+      <c r="R23">
+        <v>75.10324236487401</v>
+      </c>
+      <c r="S23">
+        <v>0.01321284460739582</v>
+      </c>
+      <c r="T23">
+        <v>0.01033415553813662</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
         <v>27</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.483601755277516</v>
-      </c>
-      <c r="H13">
-        <v>0.483601755277516</v>
-      </c>
-      <c r="I13">
-        <v>0.08731494941137706</v>
-      </c>
-      <c r="J13">
-        <v>0.08731494941137706</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>16.3971553699372</v>
-      </c>
-      <c r="N13">
-        <v>16.3971553699372</v>
-      </c>
-      <c r="O13">
-        <v>0.135225481082548</v>
-      </c>
-      <c r="P13">
-        <v>0.135225481082548</v>
-      </c>
-      <c r="Q13">
-        <v>7.929693118459777</v>
-      </c>
-      <c r="R13">
-        <v>7.929693118459777</v>
-      </c>
-      <c r="S13">
-        <v>0.0118072060398518</v>
-      </c>
-      <c r="T13">
-        <v>0.0118072060398518</v>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.5</v>
+      </c>
+      <c r="G24">
+        <v>0.5206415</v>
+      </c>
+      <c r="H24">
+        <v>1.041283</v>
+      </c>
+      <c r="I24">
+        <v>0.06998586571155688</v>
+      </c>
+      <c r="J24">
+        <v>0.04777169153728537</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>23.53771866666667</v>
+      </c>
+      <c r="N24">
+        <v>70.613156</v>
+      </c>
+      <c r="O24">
+        <v>0.184833931824778</v>
+      </c>
+      <c r="P24">
+        <v>0.211787385034485</v>
+      </c>
+      <c r="Q24">
+        <v>12.25471315319133</v>
+      </c>
+      <c r="R24">
+        <v>73.52827891914801</v>
+      </c>
+      <c r="S24">
+        <v>0.01293576273162797</v>
+      </c>
+      <c r="T24">
+        <v>0.0101174416293557</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.5</v>
+      </c>
+      <c r="G25">
+        <v>0.5206415</v>
+      </c>
+      <c r="H25">
+        <v>1.041283</v>
+      </c>
+      <c r="I25">
+        <v>0.06998586571155688</v>
+      </c>
+      <c r="J25">
+        <v>0.04777169153728537</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>16.857219</v>
+      </c>
+      <c r="N25">
+        <v>33.714438</v>
+      </c>
+      <c r="O25">
+        <v>0.1323741740449054</v>
+      </c>
+      <c r="P25">
+        <v>0.1011184468504321</v>
+      </c>
+      <c r="Q25">
+        <v>8.776567785988499</v>
+      </c>
+      <c r="R25">
+        <v>35.106271143954</v>
+      </c>
+      <c r="S25">
+        <v>0.009264321168385006</v>
+      </c>
+      <c r="T25">
+        <v>0.004830599251668228</v>
       </c>
     </row>
   </sheetData>
